--- a/2228_AlarmeFenetreOuverte/doc/2228_Planning.xlsx
+++ b/2228_AlarmeFenetreOuverte/doc/2228_Planning.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migsantos\MIGSAN_GIT\2228_AlarmeFenetre\2228_AlarmeFenetreOuverte\doc\0_Pre-etude\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migsantos\MIGSAN_GIT\2228_AlarmeFenetre\2228_AlarmeFenetreOuverte\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planning" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>No de semaine projet</t>
   </si>
@@ -87,12 +87,50 @@
   <si>
     <t>Tâches effectives</t>
   </si>
+  <si>
+    <t>Planning de projet</t>
+  </si>
+  <si>
+    <t>Auteur :</t>
+  </si>
+  <si>
+    <t>N° de projet :</t>
+  </si>
+  <si>
+    <t>Nom du projet :</t>
+  </si>
+  <si>
+    <t>Alarme pour fenêtre ouverte</t>
+  </si>
+  <si>
+    <r>
+      <t>ETML-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ETML"/>
+        <family val="2"/>
+      </rPr>
+      <t>ES</t>
+    </r>
+  </si>
+  <si>
+    <t>Année :</t>
+  </si>
+  <si>
+    <t>Miguel Santos</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +155,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="ETML"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="ETML"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -188,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -661,29 +711,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,9 +952,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,12 +961,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,9 +970,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,20 +1090,104 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,667 +1503,827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AI17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="1" customWidth="1"/>
-    <col min="3" max="35" width="2.85546875" style="7" customWidth="1"/>
-    <col min="36" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="3" style="70" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="70" customWidth="1"/>
+    <col min="3" max="35" width="2.7109375" style="69" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:35" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="83"/>
+    </row>
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="84"/>
+      <c r="C2" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80">
+        <v>2228</v>
+      </c>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="85"/>
+    </row>
+    <row r="3" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="89"/>
+    </row>
+    <row r="4" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+    </row>
+    <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
         <v>7</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L5" s="3">
         <v>8</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M5" s="3">
         <v>9</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N5" s="3">
         <v>10</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O5" s="3">
         <v>11</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="9">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3">
         <v>12</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R5" s="3">
         <v>13</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S5" s="3">
         <v>14</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T5" s="3">
         <v>15</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U5" s="3">
         <v>16</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V5" s="3">
         <v>17</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W5" s="3">
         <v>18</v>
       </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="9">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="3">
         <v>19</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AA5" s="3">
         <v>20</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB5" s="3">
         <v>21</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC5" s="3">
         <v>22</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AD5" s="3">
         <v>23</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AE5" s="3">
         <v>24</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF5" s="3">
         <v>25</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG5" s="3">
         <v>26</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH5" s="3">
         <v>27</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI5" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:35" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="6" spans="2:35" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C6" s="6">
         <v>44881</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D6" s="7">
         <v>44888</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E6" s="7">
         <v>44895</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F6" s="7">
         <v>44902</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G6" s="7">
         <v>44909</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H6" s="7">
         <v>44916</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I6" s="8">
         <v>44923</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J6" s="8">
         <v>44930</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K6" s="7">
         <v>44937</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L6" s="7">
         <v>44944</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M6" s="7">
         <v>44951</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N6" s="7">
         <v>44958</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O6" s="7">
         <v>44965</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P6" s="8">
         <v>44972</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q6" s="7">
         <v>44979</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R6" s="7">
         <v>44986</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S6" s="7">
         <v>44993</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T6" s="7">
         <v>45000</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U6" s="7">
         <v>45007</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V6" s="7">
         <v>45014</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W6" s="7">
         <v>45021</v>
       </c>
-      <c r="X3" s="14">
+      <c r="X6" s="8">
         <v>45028</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y6" s="8">
         <v>45035</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z6" s="7">
         <v>45042</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AA6" s="7">
         <v>45049</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AB6" s="7">
         <v>45056</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC6" s="7">
         <v>45063</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD6" s="7">
         <v>45070</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE6" s="7">
         <v>45077</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF6" s="7">
         <v>45084</v>
       </c>
-      <c r="AG3" s="13">
+      <c r="AG6" s="7">
         <v>45091</v>
       </c>
-      <c r="AH3" s="13">
+      <c r="AH6" s="7">
         <v>45098</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI6" s="9">
         <v>45105</v>
       </c>
     </row>
-    <row r="4" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="7" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="18"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="12"/>
     </row>
-    <row r="5" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+    <row r="8" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="15"/>
     </row>
-    <row r="6" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="21"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="15"/>
     </row>
-    <row r="7" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="10" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="33"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="21"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="15"/>
     </row>
-    <row r="8" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="11" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="15"/>
     </row>
-    <row r="9" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="15"/>
     </row>
-    <row r="10" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="21"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="15"/>
     </row>
-    <row r="11" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="26"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="20"/>
     </row>
-    <row r="12" spans="2:35" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="93"/>
+      <c r="AI15" s="15"/>
     </row>
-    <row r="13" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    <row r="16" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="AH13" s="27" t="s">
+      <c r="AH16" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AI13" s="21"/>
+      <c r="AI16" s="96"/>
     </row>
-    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="17" spans="2:35" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="32"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="97"/>
     </row>
-    <row r="15" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82" t="s">
+    <row r="18" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:35" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="P16" s="83" t="s">
+      <c r="P19" s="69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:35" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X2:AI2"/>
+    <mergeCell ref="X3:AI3"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="S2:W2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1891,15 +2334,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FCB22F1547D7D4F82919EC743CAACBC" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="428169c913c00340f791dd808214546f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aaa9772f-a032-4180-ab8e-8699b78d9e7a" xmlns:ns4="83f9d718-8695-44fe-93c7-a4e5ea258f1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2ce193a22cad6c814fa1a14997a4422a" ns3:_="" ns4:_="">
     <xsd:import namespace="aaa9772f-a032-4180-ab8e-8699b78d9e7a"/>
@@ -2122,24 +2556,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A32B576-8283-483E-AD35-4DC2FE40A519}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="aaa9772f-a032-4180-ab8e-8699b78d9e7a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="83f9d718-8695-44fe-93c7-a4e5ea258f1b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B4D15C-FB91-436E-944F-B08630DE4255}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0963310-A408-4456-AFB6-981B3117E6FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2156,4 +2599,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B4D15C-FB91-436E-944F-B08630DE4255}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>